--- a/KBS/report/Field Chk_469-Run0.xlsx
+++ b/KBS/report/Field Chk_469-Run0.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t xml:space="preserve">Step No</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">Element with text :Logout is found and clicked successfully..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Logout is successfull</t>
   </si>
   <si>
     <t xml:space="preserve">The application is closed successfully..</t>
@@ -258,6 +261,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
